--- a/report/buglist.xlsx
+++ b/report/buglist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="255" windowWidth="20475" windowHeight="9480" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="600" yWindow="285" windowWidth="20475" windowHeight="9450" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="247">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>用户管理，只有25条记录，但右下角显示有26条记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-7第一栏多了数据导出按钮。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,10 +151,6 @@
   </si>
   <si>
     <t>打开时不是最大化，之后浏览器最大化，框架本身也无法最大化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出按钮的位置不统一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,13 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击数据检索，后台报错
-2014-08-22 17:06:22[ERROR]There is no Action mapped for namespace / and action name loadTableName. - [unknown location]
- at cn.nit.util.EncodingFilter.doFilter(EncodingFilter.java:60)
- at cn.nit.util.LoginFilter.doFilter(LoginFilter.java:37)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>56d01ca</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表7-3-1，表7-3-2，表7-3-4，直接将导出的数据导入，提示错误：第4行，听课日期格式不正确，格式为：2012/09/01。7-3-5，7-4-4，7-4-5可以导入。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表5-1-2，导出的文件直接导入，提示错误：第5行，课程类别不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,18 +342,6 @@
   </si>
   <si>
     <t>FileUploadDownload.xml 文件有错误。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a0c4349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范双艳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,26 +355,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表1-5-1，1-5-2，1-7，1-8-1，1-8-2，1-8-3，1-9，没有表的名称。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-9，一打开后台就会报错。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wontfix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表S-1-5，选择2013年数据，为空，导出报错：后台传入的数据为空。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件导出名称会出现乱码或者文件名超长的情况。表1、5、6、7可以正常导出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>范双艳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,18 +416,6 @@
   </si>
   <si>
     <t>wontfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-5-1，IE8，添加，没有显示出浏览按钮，出现的按钮无法使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-6导出的表格，默认名称少1个括号。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IE8、IE9，查询按钮不在一条直线。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -599,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>df7db494</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导师类别管理，导师代码可以有字符吗？添加导师信息12qasd qwe，前台报错：添加失败！后台报错：
 om.microsoft.sqlserver.jdbc.SQLServerException: 将截断字符串或二进制数据。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,11 +694,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>表3-3，导出的数据直接导入，报错提示导入成功，没有自动刷新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wontfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4-10，发表论文篇数计算错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4-2，单条添加，无法保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-1-3，导出的数据直接导入，报错：第7行，学科门类错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-1-2，3-2-1，批量导入数据之后没有自动刷新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4-2，单条添加，成功，后台报错：Method "setSeqNumber" failed for object cn.nit.bean.table4.T42_Bean@d68ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52ae02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申超波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教务处表，提交大于4M文件，前台无提示，后台报错：the request was rejected because its size (74977084) exceeds the configured maximum (2097152)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申超波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5f4d64f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师类别管理表，无法删除选中条目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-9，不显示数据，导出的表有4条数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-6，不应有删除功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6-5-2，学生姓名学号字段，到底是填写姓名还是学号？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wontfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表T522 导出的数据跟显示的不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T532 T534 批量导入后  页面不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6-1-5 不能批量导入  6-5-6 批量导入条数不对  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-8-1，批量导入弹窗提示“object，object”，之后右下角弹窗提示数据存储成功。没有刷新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-8-2，1-8-3，右下角弹窗提示数据存储成功，没有刷新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3134b48e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-8-1，批量导入弹窗提示“object，object”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d7ede9ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T522，批量导入，提示没有该级别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3c81722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3c81722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4c94388d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋亚东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2578efc51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2578efc51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2b2a00ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5-1-2，显示的记录数，与实际的数目不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋亚东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74debc8a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6-5-6 批量导入条数不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6-5-2，判断错误的逻辑顺序，与表格项目顺序不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6-5-2，提示的错误和实际字段不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6-5-2，导出后导入，报错：第6行，等级不能为空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5-3-1，导出的表格备注一列少边框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wontfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wontfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46371e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3-2-1，导出的表格内容合并，一页之内不能找到合并的内容名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核提示字幕重影。（IE11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核原因未清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申超波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范双艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5-1-01、表5-1-02、表s5-3-01导出的excel表格名称有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5-3-02，表5-3-2数据导出报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6-1-2不能编辑，还要不要有保存和取消按钮？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数不能编辑，其他可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表s-6-5，小数点后位数太多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加按钮等名称不统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育部表一键导出报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据备份功能未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-7第一栏多了数据导出按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范双艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0c4349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-5-1，1-5-2，1-7，1-8-1，1-8-2，1-8-3，1-9，没有表的名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df7db494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-9，一打开后台就会报错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表S-1-5，选择2013年数据，为空，导出报错：后台传入的数据为空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wontfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-5-1，IE8，添加，没有显示出浏览按钮，出现的按钮无法使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持IE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-6导出的表格，默认名称少1个括号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1-8-1，显示只有2条数据，导出的表不止2条数据。批量导入弹窗提示“object，object”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3134b48e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>表3-2-2，新版模版空表导入会报错，旧版可以提示“你导入的是空表”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表3-3，导出的数据直接导入，报错提示导入成功，没有自动刷新。</t>
+    <t>表5-1-01和表5-1-02，导出的表格开头都是表5-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6-2-1，不用做添加功能吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核未通过，不再具有添加资格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7-1-1，表7-1-2，审核通过的数据，导出后，excel表格为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,15 +1030,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表4-10，发表论文篇数计算错误。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表4-2，单条添加，无法保存。</t>
+    <t>非该用户添加数据，测试阶段帐号可以看到导出功能，最终用户不会看到该功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7-3-3没有做待审核表</t>
+  </si>
+  <si>
+    <t>表7-3-1，表7-3-2，直接将导出的数据导入，提示错误：第4行，听课日期格式不正确，格式为：2012/09/01。7-3-5，7-4-4，7-4-5可以导入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击数据检索，后台报错
+2014-08-22 17:06:22[ERROR]There is no Action mapped for namespace / and action name loadTableName. - [unknown location]
+ at cn.nit.util.EncodingFilter.doFilter(EncodingFilter.java:60)
+ at cn.nit.util.LoginFilter.doFilter(LoginFilter.java:37)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -785,47 +1052,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表3-1-3，导出的数据直接导入，报错：第7行，学科门类错误。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表3-1-2，3-2-1，批量导入数据之后没有自动刷新。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表4-2，单条添加，成功，后台报错：Method "setSeqNumber" failed for object cn.nit.bean.table4.T42_Bean@d68ec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52ae02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申超波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教务处表，提交大于4M文件，前台无提示，后台报错：the request was rejected because its size (74977084) exceeds the configured maximum (2097152)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申超波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5f4d64f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导师类别管理表，无法删除选中条目。</t>
+    <t>查询数据库速度太慢。IE浏览器尤其明显。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -833,171 +1060,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表1-9，不显示数据，导出的表有4条数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-6，不应有删除功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表6-5-2，学生姓名学号字段，到底是填写姓名还是学号？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wontfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表T522 导出的数据跟显示的不一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T532 T534 批量导入后  页面不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6-1-5 不能批量导入  6-5-6 批量导入条数不对  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3134b48e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-8-1，显示只有2条数据，导出的表不止2条数据。批量导入弹窗提示“object，object”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-8-1，批量导入弹窗提示“object，object”，之后右下角弹窗提示数据存储成功。没有刷新。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-8-2，1-8-3，右下角弹窗提示数据存储成功，没有刷新。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3134b48e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1-8-1，批量导入弹窗提示“object，object”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d7ede9ea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T522，批量导入，提示没有该级别。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d3c81722</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d3c81722</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b4c94388d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋亚东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2578efc51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2578efc51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d2b2a00ec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5-1-2，显示的记录数，与实际的数目不符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋亚东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74debc8a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表6-5-6 批量导入条数不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表6-5-2，判断错误的逻辑顺序，与表格项目顺序不符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表6-5-2，提示的错误和实际字段不符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表6-5-2，导出后导入，报错：第6行，等级不能为空。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wontfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5-3-1，导出的表格备注一列少边框。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wontfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wontfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46371e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表3-2-1，导出的表格内容合并，一页之内不能找到合并的内容名称。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核提示字幕重影。（IE11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核原因未清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申超波</t>
+    <t>文件导出名称会出现乱码或者文件名超长的情况。表1、5、6、7可以正常导出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IE8、IE9，查询按钮不在一条直线。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出按钮的位置不统一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,7 +1076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,6 +1133,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1071,7 +1149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1148,13 +1226,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,6 +1388,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1656,13 +1770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -1670,7 +1784,7 @@
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1684,214 +1798,234 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="16" customFormat="1">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19">
+      <c r="B2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="B3" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="94.5">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23">
+        <v>74</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" s="26" customFormat="1">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="B6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="27">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" s="16" customFormat="1">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23">
+      <c r="E8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1">
       <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="26" customFormat="1">
       <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1">
       <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="26" customFormat="1">
       <c r="A13" s="23">
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="26" customFormat="1">
       <c r="A14" s="23">
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1909,14 +2043,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="97.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1930,21 +2064,21 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="18"/>
     </row>
@@ -1956,13 +2090,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -1970,7 +2104,7 @@
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1984,247 +2118,280 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" ht="27">
       <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="16" customFormat="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="26" customFormat="1">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="16" customFormat="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="16" customFormat="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="16" customFormat="1" ht="27">
       <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="16" customFormat="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="26" customFormat="1">
       <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="27" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="16" customFormat="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="16" customFormat="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="16" customFormat="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="19" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="26" customFormat="1">
       <c r="A14" s="23">
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="26" customFormat="1">
       <c r="A15" s="23">
         <v>14</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="26" customFormat="1">
       <c r="A16" s="23">
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2238,16 +2405,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="124.5" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2261,18 +2428,20 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>219</v>
+      </c>
       <c r="E2" s="7"/>
     </row>
   </sheetData>
@@ -2286,10 +2455,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -2297,7 +2466,7 @@
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2311,64 +2480,68 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1">
       <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1">
       <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="26" customFormat="1" ht="27">
       <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E5" s="23"/>
     </row>
@@ -2380,13 +2553,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A13:E15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -2394,7 +2567,7 @@
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2408,150 +2581,150 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="26" customFormat="1">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E4" s="31">
         <v>41882</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="26" customFormat="1">
       <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>86</v>
+      <c r="B5" s="30" t="s">
+        <v>244</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="16" customFormat="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>104</v>
+      <c r="B6" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E6" s="28">
         <v>41883</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
+      <c r="B7" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="54">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="16" customFormat="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="26" customFormat="1">
       <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="26" customFormat="1">
       <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>4</v>
@@ -2560,40 +2733,53 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="5"/>
+      <c r="B13" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2610,7 +2796,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -2618,7 +2804,7 @@
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2632,10 +2818,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2643,40 +2829,40 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="26" customFormat="1" ht="67.5">
       <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="26" customFormat="1">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="30"/>
     </row>
@@ -2692,10 +2878,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -2704,7 +2890,7 @@
     <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2718,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -2729,16 +2915,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -2746,7 +2932,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>4</v>
@@ -2755,45 +2941,45 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="26" customFormat="1" ht="121.5">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="16" customFormat="1" ht="54">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="26" customFormat="1">
       <c r="A6" s="23">
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>4</v>
@@ -2802,15 +2988,15 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="26" customFormat="1">
       <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>4</v>
@@ -2819,15 +3005,15 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="26" customFormat="1">
       <c r="A8" s="23">
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>4</v>
@@ -2836,32 +3022,32 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="26" customFormat="1" ht="27">
       <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="26" customFormat="1" ht="27">
       <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>4</v>
@@ -2870,56 +3056,60 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="26" customFormat="1">
       <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="26" customFormat="1">
       <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="26" customFormat="1">
       <c r="A14" s="23">
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>4</v>
@@ -2928,15 +3118,15 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="26" customFormat="1">
       <c r="A15" s="23">
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>4</v>
@@ -2945,12 +3135,12 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2967,10 +3157,10 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="116" customWidth="1"/>
@@ -2978,7 +3168,7 @@
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2992,18 +3182,18 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1">
       <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>4</v>
@@ -3012,115 +3202,115 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="16" customFormat="1" ht="27">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="16" customFormat="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="26" customFormat="1" ht="27">
       <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="16" customFormat="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="26" customFormat="1" ht="202.5">
       <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E7" s="31">
         <v>41888</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="26" customFormat="1">
       <c r="A8" s="23">
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="26" customFormat="1" ht="40.5">
       <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>4</v>
@@ -3129,15 +3319,15 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="26" customFormat="1">
       <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>4</v>
@@ -3146,15 +3336,15 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="26" customFormat="1" ht="27">
       <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>4</v>
@@ -3163,15 +3353,15 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="26" customFormat="1" ht="81">
       <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>4</v>
@@ -3180,15 +3370,15 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="26" customFormat="1" ht="40.5">
       <c r="A13" s="23">
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>4</v>
@@ -3197,15 +3387,15 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="26" customFormat="1">
       <c r="A14" s="23">
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>4</v>
@@ -3214,60 +3404,64 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="26" customFormat="1">
       <c r="A16" s="23">
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="26" customFormat="1">
       <c r="A17" s="23">
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="26" customFormat="1">
       <c r="A18" s="23">
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>4</v>
@@ -3285,13 +3479,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -3299,7 +3493,7 @@
     <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3313,35 +3507,35 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1">
       <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>4</v>
@@ -3350,15 +3544,15 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="26" customFormat="1">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>4</v>
@@ -3367,15 +3561,15 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>4</v>
@@ -3384,209 +3578,209 @@
         <v>5137322</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="26" customFormat="1">
       <c r="A6" s="23">
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E6" s="40">
         <v>41888</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="26" customFormat="1">
       <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E7" s="40">
         <v>41888</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="16" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E8" s="14">
         <v>5137322</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="26" customFormat="1">
       <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="26" customFormat="1">
       <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="26" customFormat="1">
       <c r="A11" s="32">
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="26" customFormat="1">
       <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="26" customFormat="1">
       <c r="A13" s="23">
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="26" customFormat="1">
       <c r="A14" s="23">
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="41">
         <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" s="26" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="26" customFormat="1" ht="81">
       <c r="A16" s="23">
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="26" customFormat="1">
       <c r="A17" s="23">
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="26" customFormat="1">
       <c r="A18" s="23">
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>4</v>
@@ -3595,52 +3789,67 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" s="26" customFormat="1">
       <c r="A19" s="23">
         <v>18</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="23">
         <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="26" customFormat="1">
       <c r="A21" s="23">
         <v>20</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="44" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3651,13 +3860,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="128.75" customWidth="1"/>
@@ -3665,7 +3874,7 @@
     <col min="5" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3679,15 +3888,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -3697,7 +3906,7 @@
       </c>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="26" customFormat="1">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -3712,51 +3921,51 @@
       </c>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="26" customFormat="1">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="26" customFormat="1" ht="128.25" customHeight="1">
       <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="26" customFormat="1">
       <c r="A6" s="23">
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="26" customFormat="1">
       <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>3</v>
@@ -3766,40 +3975,40 @@
       </c>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="26" customFormat="1">
       <c r="A8" s="23">
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="26" customFormat="1">
       <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="26" customFormat="1">
       <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>3</v>
@@ -3809,12 +4018,12 @@
       </c>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="26" customFormat="1">
       <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>3</v>
@@ -3824,47 +4033,47 @@
       </c>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="26" customFormat="1">
       <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="26" customFormat="1">
       <c r="A13" s="43">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="27"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="26" customFormat="1">
       <c r="A15" s="23">
         <v>14</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>3</v>
@@ -3874,27 +4083,61 @@
       </c>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3905,13 +4148,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -3919,7 +4162,7 @@
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3933,224 +4176,251 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="26" customFormat="1" ht="27">
       <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="26" customFormat="1">
       <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="26" customFormat="1">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="26" customFormat="1">
       <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="26" customFormat="1" ht="27">
       <c r="A8" s="23">
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="26" customFormat="1">
       <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="26" customFormat="1" ht="54">
       <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="26" customFormat="1">
       <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="26" customFormat="1">
       <c r="A13" s="23">
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="26" customFormat="1">
       <c r="A15" s="23">
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" ht="81">
+      <c r="A16" s="46">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="47"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4167,7 +4437,7 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="97.625" customWidth="1"/>
@@ -4176,7 +4446,7 @@
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4190,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4201,33 +4471,33 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="16" customFormat="1" ht="27">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -4248,14 +4518,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="97.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4269,24 +4539,24 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1" ht="27">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
